--- a/config/window.xlsx
+++ b/config/window.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>唯一id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,26 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三扽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeFi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万恶否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不懂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万恶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我EQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +53,70 @@
   </si>
   <si>
     <t>client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRoleView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BagView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShopView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipView</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"1":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,103 +493,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/config/window.xlsx
+++ b/config/window.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>唯一id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
   </si>
   <si>
     <t>condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"1":1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,7 +492,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,7 +542,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -573,8 +569,8 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
+      <c r="D5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
